--- a/game/各平台游戏名称中英文对照合集/世嘉GG中英文对照表.xlsx
+++ b/game/各平台游戏名称中英文对照合集/世嘉GG中英文对照表.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dellm4600\L\git\vskeddemolist\game\各平台游戏名称中英文对照合集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89671A66-76A6-4AC1-85D6-BF2C1C6B76B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C2E999-F8C8-49DF-AADC-0EDC3AF167F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$781</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="2292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="2342">
   <si>
     <t>5 in One FunPak (USA)</t>
   </si>
@@ -6905,6 +6908,163 @@
   </si>
   <si>
     <t>gg#780</t>
+  </si>
+  <si>
+    <t>洞穴小子（美版）（原型）</t>
+  </si>
+  <si>
+    <t>冠军冰球（欧洲版）</t>
+  </si>
+  <si>
+    <t>追击总部（美版）</t>
+  </si>
+  <si>
+    <t>CJ大象逃亡记（美欧版）</t>
+  </si>
+  <si>
+    <t>CJ大象逃亡记（美欧版）（测试版）（1993-10-22）</t>
+  </si>
+  <si>
+    <t>疯狂表情（欧洲版）（原型）</t>
+  </si>
+  <si>
+    <t>水晶战士（美欧版）</t>
+  </si>
+  <si>
+    <t>大卫·罗宾逊的巅峰球场（美版）（自动演示版）</t>
+  </si>
+  <si>
+    <t>唐老鸭的秘密宝藏四部曲（日本版）</t>
+  </si>
+  <si>
+    <t>唐老鸭的幸运硬币（日本版）</t>
+  </si>
+  <si>
+    <t>帝国联盟（地区未知）（测试版）</t>
+  </si>
+  <si>
+    <t>极棒的迪兹系列合集（欧洲版）</t>
+  </si>
+  <si>
+    <t>奇幻迪兹冒险（欧洲版）（英、法、德、西、意）</t>
+  </si>
+  <si>
+    <t>弗雷：修行篇（日本版）</t>
+  </si>
+  <si>
+    <t>加油！戈比！（日本版）</t>
+  </si>
+  <si>
+    <t>饿狼传说特别版（日本版）</t>
+  </si>
+  <si>
+    <t>全球角斗士（欧洲版）</t>
+  </si>
+  <si>
+    <t>重量级冠军（日本版）</t>
+  </si>
+  <si>
+    <t>黑暗之旅：忍者龙重返（美欧版）</t>
+  </si>
+  <si>
+    <t>丛林突袭（美版）</t>
+  </si>
+  <si>
+    <t>踢与冲刺（日本版）</t>
+  </si>
+  <si>
+    <t>小丑克鲁斯蒂的娱乐屋（美欧版）</t>
+  </si>
+  <si>
+    <t>有人落水啦！（欧洲版）</t>
+  </si>
+  <si>
+    <t>黑暗之主（欧洲版）</t>
+  </si>
+  <si>
+    <t>打破常规（美版）（原型）（1992-06-28）</t>
+  </si>
+  <si>
+    <t>劲爆赛车（欧洲版）</t>
+  </si>
+  <si>
+    <t>遥控车大奖赛（美版）</t>
+  </si>
+  <si>
+    <t>拉丝丹传奇（日本版）</t>
+  </si>
+  <si>
+    <t>德兰孔的复仇（美巴版）</t>
+  </si>
+  <si>
+    <t>沙达姆十字军：遥远王国（日本版）</t>
+  </si>
+  <si>
+    <t>滑板小子（美欧版）</t>
+  </si>
+  <si>
+    <t>斯皮鲁（欧洲版）（原型）</t>
+  </si>
+  <si>
+    <t>街头格斗（美版）（原型）（非官方）</t>
+  </si>
+  <si>
+    <t>街头英雄（美版）（第二版原型）</t>
+  </si>
+  <si>
+    <t>街头英雄（美版）（第一版原型）</t>
+  </si>
+  <si>
+    <t>突前前锋（欧洲版）（英、法、德、西、意）</t>
+  </si>
+  <si>
+    <t>超级桃太郎电铁III（日本版）</t>
+  </si>
+  <si>
+    <t>超级越野赛（美欧版）</t>
+  </si>
+  <si>
+    <t>超级越野赛（美欧版）（测试版）</t>
+  </si>
+  <si>
+    <t>太东追击总部（日本版）</t>
+  </si>
+  <si>
+    <t>塔罗之屋（日本版）</t>
+  </si>
+  <si>
+    <t>战吧！职业棒球双联赛（日本版）</t>
+  </si>
+  <si>
+    <t>野蛇（美版）（原型）</t>
+  </si>
+  <si>
+    <t>棒球大作战（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益智动作游戏：弹弹T-R（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益智动作游戏：一弹T-R（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度·冈萨雷斯与奶酪大灾难（美欧版）（英、法、德、西）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秃牦牛大冒险：勒内与斯坦皮主演（美欧版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞天大盗塔莱辛（美欧巴版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tengen世界杯足球赛（美欧版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7234,18 +7394,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A723" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="61.125" customWidth="1"/>
+    <col min="2" max="2" width="61.08203125" customWidth="1"/>
     <col min="3" max="3" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1509</v>
       </c>
@@ -7256,7 +7416,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1512</v>
       </c>
@@ -7267,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1520</v>
       </c>
@@ -7278,7 +7438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1519</v>
       </c>
@@ -7289,7 +7449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1521</v>
       </c>
@@ -7300,7 +7460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1522</v>
       </c>
@@ -7311,7 +7471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1523</v>
       </c>
@@ -7322,7 +7482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1524</v>
       </c>
@@ -7333,7 +7493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1525</v>
       </c>
@@ -7344,7 +7504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1526</v>
       </c>
@@ -7355,7 +7515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1527</v>
       </c>
@@ -7366,7 +7526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1517</v>
       </c>
@@ -7377,7 +7537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1528</v>
       </c>
@@ -7388,7 +7548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1518</v>
       </c>
@@ -7399,7 +7559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1529</v>
       </c>
@@ -7410,7 +7570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1530</v>
       </c>
@@ -7421,7 +7581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1531</v>
       </c>
@@ -7432,7 +7592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1532</v>
       </c>
@@ -7443,7 +7603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1533</v>
       </c>
@@ -7454,7 +7614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1534</v>
       </c>
@@ -7465,7 +7625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1535</v>
       </c>
@@ -7476,7 +7636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1536</v>
       </c>
@@ -7487,7 +7647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1537</v>
       </c>
@@ -7498,7 +7658,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1538</v>
       </c>
@@ -7509,7 +7669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1539</v>
       </c>
@@ -7520,7 +7680,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1540</v>
       </c>
@@ -7531,7 +7691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1541</v>
       </c>
@@ -7542,7 +7702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1513</v>
       </c>
@@ -7553,7 +7713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1516</v>
       </c>
@@ -7564,7 +7724,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1514</v>
       </c>
@@ -7575,7 +7735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1515</v>
       </c>
@@ -7586,7 +7746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1542</v>
       </c>
@@ -7597,7 +7757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1543</v>
       </c>
@@ -7608,7 +7768,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1544</v>
       </c>
@@ -7619,7 +7779,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1545</v>
       </c>
@@ -7630,7 +7790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1546</v>
       </c>
@@ -7641,7 +7801,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1547</v>
       </c>
@@ -7652,7 +7812,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1548</v>
       </c>
@@ -7663,7 +7823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1549</v>
       </c>
@@ -7674,7 +7834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1550</v>
       </c>
@@ -7685,7 +7845,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1551</v>
       </c>
@@ -7696,7 +7856,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1552</v>
       </c>
@@ -7707,7 +7867,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1553</v>
       </c>
@@ -7718,7 +7878,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1554</v>
       </c>
@@ -7729,7 +7889,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1555</v>
       </c>
@@ -7740,7 +7900,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1556</v>
       </c>
@@ -7751,7 +7911,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1557</v>
       </c>
@@ -7762,7 +7922,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1558</v>
       </c>
@@ -7773,7 +7933,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1559</v>
       </c>
@@ -7784,7 +7944,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1560</v>
       </c>
@@ -7795,7 +7955,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1561</v>
       </c>
@@ -7806,7 +7966,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1562</v>
       </c>
@@ -7817,7 +7977,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1563</v>
       </c>
@@ -7828,15 +7988,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1564</v>
       </c>
       <c r="B54" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1565</v>
       </c>
@@ -7847,7 +8010,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1566</v>
       </c>
@@ -7858,7 +8021,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1567</v>
       </c>
@@ -7869,7 +8032,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1568</v>
       </c>
@@ -7880,7 +8043,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1569</v>
       </c>
@@ -7891,7 +8054,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1570</v>
       </c>
@@ -7902,7 +8065,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1571</v>
       </c>
@@ -7913,7 +8076,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1572</v>
       </c>
@@ -7924,7 +8087,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1573</v>
       </c>
@@ -7935,7 +8098,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1574</v>
       </c>
@@ -7946,7 +8109,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1575</v>
       </c>
@@ -7957,7 +8120,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1576</v>
       </c>
@@ -7968,7 +8131,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1577</v>
       </c>
@@ -7979,7 +8142,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1578</v>
       </c>
@@ -7990,7 +8153,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1579</v>
       </c>
@@ -8001,7 +8164,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1580</v>
       </c>
@@ -8012,7 +8175,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1581</v>
       </c>
@@ -8023,7 +8186,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1582</v>
       </c>
@@ -8034,7 +8197,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1583</v>
       </c>
@@ -8045,7 +8208,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1584</v>
       </c>
@@ -8056,7 +8219,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1585</v>
       </c>
@@ -8067,7 +8230,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1586</v>
       </c>
@@ -8078,7 +8241,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1587</v>
       </c>
@@ -8089,7 +8252,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1588</v>
       </c>
@@ -8100,7 +8263,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1589</v>
       </c>
@@ -8111,7 +8274,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1590</v>
       </c>
@@ -8122,7 +8285,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1591</v>
       </c>
@@ -8133,7 +8296,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1592</v>
       </c>
@@ -8144,7 +8307,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1593</v>
       </c>
@@ -8155,7 +8318,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1594</v>
       </c>
@@ -8166,7 +8329,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1595</v>
       </c>
@@ -8177,7 +8340,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1596</v>
       </c>
@@ -8188,7 +8351,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1597</v>
       </c>
@@ -8199,7 +8362,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1598</v>
       </c>
@@ -8210,7 +8373,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1599</v>
       </c>
@@ -8221,7 +8384,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1600</v>
       </c>
@@ -8232,7 +8395,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1601</v>
       </c>
@@ -8243,7 +8406,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1602</v>
       </c>
@@ -8254,7 +8417,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1603</v>
       </c>
@@ -8265,7 +8428,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1604</v>
       </c>
@@ -8276,7 +8439,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1605</v>
       </c>
@@ -8287,7 +8450,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1606</v>
       </c>
@@ -8298,7 +8461,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1607</v>
       </c>
@@ -8309,7 +8472,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1608</v>
       </c>
@@ -8320,7 +8483,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1609</v>
       </c>
@@ -8331,7 +8494,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1610</v>
       </c>
@@ -8342,7 +8505,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1611</v>
       </c>
@@ -8353,7 +8516,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1612</v>
       </c>
@@ -8364,7 +8527,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1613</v>
       </c>
@@ -8375,7 +8538,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1614</v>
       </c>
@@ -8386,7 +8549,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1615</v>
       </c>
@@ -8397,7 +8560,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1616</v>
       </c>
@@ -8408,15 +8571,18 @@
         <v>208</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1617</v>
       </c>
       <c r="B107" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1618</v>
       </c>
@@ -8427,31 +8593,40 @@
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1619</v>
       </c>
       <c r="B109" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1620</v>
       </c>
       <c r="B110" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1621</v>
       </c>
       <c r="B111" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1622</v>
       </c>
@@ -8462,7 +8637,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1623</v>
       </c>
@@ -8473,7 +8648,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1624</v>
       </c>
@@ -8484,7 +8659,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1625</v>
       </c>
@@ -8495,7 +8670,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1626</v>
       </c>
@@ -8506,7 +8681,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1627</v>
       </c>
@@ -8517,7 +8692,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1628</v>
       </c>
@@ -8528,7 +8703,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1629</v>
       </c>
@@ -8539,7 +8714,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1630</v>
       </c>
@@ -8550,7 +8725,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1631</v>
       </c>
@@ -8561,7 +8736,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1632</v>
       </c>
@@ -8572,7 +8747,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1633</v>
       </c>
@@ -8583,7 +8758,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1634</v>
       </c>
@@ -8594,7 +8769,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1635</v>
       </c>
@@ -8605,7 +8780,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1636</v>
       </c>
@@ -8616,7 +8791,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1637</v>
       </c>
@@ -8627,7 +8802,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1638</v>
       </c>
@@ -8638,7 +8813,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1639</v>
       </c>
@@ -8649,7 +8824,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1640</v>
       </c>
@@ -8660,7 +8835,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1641</v>
       </c>
@@ -8671,7 +8846,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1642</v>
       </c>
@@ -8682,7 +8857,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1643</v>
       </c>
@@ -8693,7 +8868,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1644</v>
       </c>
@@ -8704,7 +8879,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1645</v>
       </c>
@@ -8715,7 +8890,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1646</v>
       </c>
@@ -8726,7 +8901,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1647</v>
       </c>
@@ -8737,7 +8912,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1648</v>
       </c>
@@ -8748,7 +8923,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1649</v>
       </c>
@@ -8759,7 +8934,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1650</v>
       </c>
@@ -8770,7 +8945,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1651</v>
       </c>
@@ -8781,7 +8956,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1652</v>
       </c>
@@ -8792,23 +8967,29 @@
         <v>276</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1653</v>
       </c>
       <c r="B143" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1654</v>
       </c>
       <c r="B144" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1655</v>
       </c>
@@ -8819,7 +9000,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1656</v>
       </c>
@@ -8830,7 +9011,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1657</v>
       </c>
@@ -8841,7 +9022,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1658</v>
       </c>
@@ -8852,7 +9033,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1659</v>
       </c>
@@ -8863,7 +9044,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1660</v>
       </c>
@@ -8874,7 +9055,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1661</v>
       </c>
@@ -8885,7 +9066,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1662</v>
       </c>
@@ -8896,7 +9077,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1663</v>
       </c>
@@ -8907,7 +9088,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1664</v>
       </c>
@@ -8918,23 +9099,29 @@
         <v>298</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1665</v>
       </c>
       <c r="B155" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1666</v>
       </c>
       <c r="B156" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1667</v>
       </c>
@@ -8945,7 +9132,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1668</v>
       </c>
@@ -8956,7 +9143,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1669</v>
       </c>
@@ -8967,15 +9154,18 @@
         <v>306</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1670</v>
       </c>
       <c r="B160" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1671</v>
       </c>
@@ -8986,7 +9176,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1672</v>
       </c>
@@ -8997,7 +9187,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1673</v>
       </c>
@@ -9008,7 +9198,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1674</v>
       </c>
@@ -9019,7 +9209,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1675</v>
       </c>
@@ -9030,7 +9220,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1676</v>
       </c>
@@ -9041,7 +9231,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1677</v>
       </c>
@@ -9052,7 +9242,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1678</v>
       </c>
@@ -9063,7 +9253,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1679</v>
       </c>
@@ -9074,7 +9264,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1680</v>
       </c>
@@ -9085,23 +9275,29 @@
         <v>327</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1681</v>
       </c>
       <c r="B171" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1682</v>
       </c>
       <c r="B172" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1683</v>
       </c>
@@ -9112,7 +9308,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1684</v>
       </c>
@@ -9123,7 +9319,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1685</v>
       </c>
@@ -9134,7 +9330,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1686</v>
       </c>
@@ -9145,7 +9341,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>1687</v>
       </c>
@@ -9156,7 +9352,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1688</v>
       </c>
@@ -9167,7 +9363,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>1689</v>
       </c>
@@ -9178,7 +9374,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>1690</v>
       </c>
@@ -9189,7 +9385,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>1691</v>
       </c>
@@ -9200,7 +9396,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1692</v>
       </c>
@@ -9211,7 +9407,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1693</v>
       </c>
@@ -9222,7 +9418,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1694</v>
       </c>
@@ -9233,7 +9429,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1695</v>
       </c>
@@ -9244,7 +9440,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1696</v>
       </c>
@@ -9255,7 +9451,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1697</v>
       </c>
@@ -9266,7 +9462,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1698</v>
       </c>
@@ -9277,7 +9473,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1699</v>
       </c>
@@ -9288,7 +9484,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1700</v>
       </c>
@@ -9299,7 +9495,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>1701</v>
       </c>
@@ -9310,7 +9506,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1702</v>
       </c>
@@ -9321,7 +9517,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>1703</v>
       </c>
@@ -9332,7 +9528,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1704</v>
       </c>
@@ -9343,7 +9539,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1705</v>
       </c>
@@ -9354,7 +9550,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1706</v>
       </c>
@@ -9365,7 +9561,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1707</v>
       </c>
@@ -9376,7 +9572,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1708</v>
       </c>
@@ -9387,7 +9583,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1709</v>
       </c>
@@ -9398,15 +9594,18 @@
         <v>383</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1710</v>
       </c>
       <c r="B200" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C200" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1711</v>
       </c>
@@ -9417,7 +9616,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1712</v>
       </c>
@@ -9428,7 +9627,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1713</v>
       </c>
@@ -9439,15 +9638,18 @@
         <v>390</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1714</v>
       </c>
       <c r="B204" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C204" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1715</v>
       </c>
@@ -9458,7 +9660,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1716</v>
       </c>
@@ -9469,7 +9671,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1717</v>
       </c>
@@ -9480,7 +9682,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1718</v>
       </c>
@@ -9491,7 +9693,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1719</v>
       </c>
@@ -9502,15 +9704,18 @@
         <v>401</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1720</v>
       </c>
       <c r="B210" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C210" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1721</v>
       </c>
@@ -9521,7 +9726,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1722</v>
       </c>
@@ -9532,7 +9737,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1723</v>
       </c>
@@ -9543,7 +9748,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1724</v>
       </c>
@@ -9554,7 +9759,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1725</v>
       </c>
@@ -9565,7 +9770,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1726</v>
       </c>
@@ -9576,7 +9781,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1727</v>
       </c>
@@ -9587,7 +9792,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1728</v>
       </c>
@@ -9598,7 +9803,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1729</v>
       </c>
@@ -9609,15 +9814,18 @@
         <v>420</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1730</v>
       </c>
       <c r="B220" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C220" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1731</v>
       </c>
@@ -9628,7 +9836,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1732</v>
       </c>
@@ -9639,7 +9847,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1733</v>
       </c>
@@ -9650,7 +9858,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1734</v>
       </c>
@@ -9661,7 +9869,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1735</v>
       </c>
@@ -9672,7 +9880,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1736</v>
       </c>
@@ -9683,7 +9891,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1737</v>
       </c>
@@ -9694,7 +9902,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1738</v>
       </c>
@@ -9705,7 +9913,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1739</v>
       </c>
@@ -9716,7 +9924,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1740</v>
       </c>
@@ -9727,7 +9935,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1741</v>
       </c>
@@ -9738,7 +9946,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1742</v>
       </c>
@@ -9749,15 +9957,18 @@
         <v>445</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1743</v>
       </c>
       <c r="B233" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C233" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1744</v>
       </c>
@@ -9768,15 +9979,18 @@
         <v>448</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1745</v>
       </c>
       <c r="B235" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C235" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1746</v>
       </c>
@@ -9787,7 +10001,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1747</v>
       </c>
@@ -9798,7 +10012,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1748</v>
       </c>
@@ -9809,7 +10023,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1749</v>
       </c>
@@ -9820,7 +10034,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1750</v>
       </c>
@@ -9831,7 +10045,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1751</v>
       </c>
@@ -9842,7 +10056,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1752</v>
       </c>
@@ -9853,7 +10067,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1753</v>
       </c>
@@ -9864,7 +10078,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1754</v>
       </c>
@@ -9875,7 +10089,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1755</v>
       </c>
@@ -9886,7 +10100,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1756</v>
       </c>
@@ -9897,15 +10111,18 @@
         <v>471</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1757</v>
       </c>
       <c r="B247" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C247" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1758</v>
       </c>
@@ -9916,7 +10133,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1759</v>
       </c>
@@ -9927,7 +10144,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1760</v>
       </c>
@@ -9938,7 +10155,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1761</v>
       </c>
@@ -9949,7 +10166,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1762</v>
       </c>
@@ -9960,7 +10177,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1763</v>
       </c>
@@ -9971,7 +10188,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1764</v>
       </c>
@@ -9982,7 +10199,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1765</v>
       </c>
@@ -9993,7 +10210,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1766</v>
       </c>
@@ -10004,7 +10221,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1767</v>
       </c>
@@ -10015,15 +10232,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1768</v>
       </c>
       <c r="B258" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C258" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1769</v>
       </c>
@@ -10034,7 +10254,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1770</v>
       </c>
@@ -10045,7 +10265,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1771</v>
       </c>
@@ -10056,7 +10276,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1772</v>
       </c>
@@ -10067,7 +10287,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1773</v>
       </c>
@@ -10078,7 +10298,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1774</v>
       </c>
@@ -10089,7 +10309,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1775</v>
       </c>
@@ -10100,7 +10320,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1776</v>
       </c>
@@ -10111,7 +10331,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1777</v>
       </c>
@@ -10122,7 +10342,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1778</v>
       </c>
@@ -10133,7 +10353,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1779</v>
       </c>
@@ -10144,7 +10364,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1780</v>
       </c>
@@ -10155,7 +10375,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1781</v>
       </c>
@@ -10166,7 +10386,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1782</v>
       </c>
@@ -10177,7 +10397,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1783</v>
       </c>
@@ -10188,7 +10408,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1784</v>
       </c>
@@ -10199,7 +10419,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1785</v>
       </c>
@@ -10210,7 +10430,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1786</v>
       </c>
@@ -10221,7 +10441,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1787</v>
       </c>
@@ -10232,7 +10452,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1788</v>
       </c>
@@ -10243,7 +10463,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1789</v>
       </c>
@@ -10254,7 +10474,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1790</v>
       </c>
@@ -10265,7 +10485,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1791</v>
       </c>
@@ -10276,7 +10496,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1792</v>
       </c>
@@ -10287,15 +10507,18 @@
         <v>541</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1793</v>
       </c>
       <c r="B283" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C283" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1794</v>
       </c>
@@ -10306,7 +10529,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1795</v>
       </c>
@@ -10317,7 +10540,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1796</v>
       </c>
@@ -10328,7 +10551,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1797</v>
       </c>
@@ -10339,7 +10562,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1798</v>
       </c>
@@ -10350,15 +10573,18 @@
         <v>552</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1799</v>
       </c>
       <c r="B289" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C289" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1800</v>
       </c>
@@ -10369,7 +10595,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1801</v>
       </c>
@@ -10380,7 +10606,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1802</v>
       </c>
@@ -10391,7 +10617,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1803</v>
       </c>
@@ -10402,7 +10628,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1804</v>
       </c>
@@ -10413,7 +10639,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1805</v>
       </c>
@@ -10424,15 +10650,18 @@
         <v>565</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1806</v>
       </c>
       <c r="B296" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C296" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1807</v>
       </c>
@@ -10443,7 +10672,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1808</v>
       </c>
@@ -10454,7 +10683,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1809</v>
       </c>
@@ -10465,15 +10694,18 @@
         <v>572</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1810</v>
       </c>
       <c r="B300" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C300" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1811</v>
       </c>
@@ -10484,7 +10716,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1812</v>
       </c>
@@ -10495,7 +10727,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1813</v>
       </c>
@@ -10506,7 +10738,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1814</v>
       </c>
@@ -10517,7 +10749,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1815</v>
       </c>
@@ -10528,7 +10760,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1816</v>
       </c>
@@ -10539,7 +10771,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1817</v>
       </c>
@@ -10550,7 +10782,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1818</v>
       </c>
@@ -10561,7 +10793,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1819</v>
       </c>
@@ -10572,7 +10804,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1820</v>
       </c>
@@ -10583,7 +10815,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1821</v>
       </c>
@@ -10594,7 +10826,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1822</v>
       </c>
@@ -10605,7 +10837,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1823</v>
       </c>
@@ -10616,7 +10848,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1824</v>
       </c>
@@ -10627,7 +10859,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1825</v>
       </c>
@@ -10638,7 +10870,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1826</v>
       </c>
@@ -10649,7 +10881,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1827</v>
       </c>
@@ -10660,7 +10892,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1828</v>
       </c>
@@ -10671,7 +10903,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1829</v>
       </c>
@@ -10682,7 +10914,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1830</v>
       </c>
@@ -10693,7 +10925,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1831</v>
       </c>
@@ -10704,7 +10936,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1832</v>
       </c>
@@ -10715,7 +10947,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1833</v>
       </c>
@@ -10726,7 +10958,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1834</v>
       </c>
@@ -10737,7 +10969,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1835</v>
       </c>
@@ -10748,7 +10980,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1836</v>
       </c>
@@ -10759,7 +10991,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1837</v>
       </c>
@@ -10770,7 +11002,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1838</v>
       </c>
@@ -10781,7 +11013,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1839</v>
       </c>
@@ -10792,7 +11024,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1840</v>
       </c>
@@ -10803,7 +11035,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1841</v>
       </c>
@@ -10814,7 +11046,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1842</v>
       </c>
@@ -10825,7 +11057,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1843</v>
       </c>
@@ -10836,7 +11068,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1844</v>
       </c>
@@ -10847,7 +11079,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1845</v>
       </c>
@@ -10858,7 +11090,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1846</v>
       </c>
@@ -10869,7 +11101,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1847</v>
       </c>
@@ -10880,7 +11112,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1848</v>
       </c>
@@ -10891,7 +11123,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1849</v>
       </c>
@@ -10902,7 +11134,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1850</v>
       </c>
@@ -10913,7 +11145,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1851</v>
       </c>
@@ -10924,15 +11156,18 @@
         <v>655</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1852</v>
       </c>
       <c r="B342" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C342" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1853</v>
       </c>
@@ -10943,7 +11178,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1854</v>
       </c>
@@ -10954,7 +11189,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1855</v>
       </c>
@@ -10965,15 +11200,18 @@
         <v>662</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1856</v>
       </c>
       <c r="B346" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C346" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1857</v>
       </c>
@@ -10984,7 +11222,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1858</v>
       </c>
@@ -10995,7 +11233,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1859</v>
       </c>
@@ -11006,7 +11244,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1860</v>
       </c>
@@ -11017,7 +11255,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1861</v>
       </c>
@@ -11028,7 +11266,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1862</v>
       </c>
@@ -11039,7 +11277,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1863</v>
       </c>
@@ -11050,7 +11288,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1864</v>
       </c>
@@ -11061,7 +11299,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1865</v>
       </c>
@@ -11072,7 +11310,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1866</v>
       </c>
@@ -11083,7 +11321,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1867</v>
       </c>
@@ -11094,7 +11332,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1868</v>
       </c>
@@ -11105,7 +11343,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1869</v>
       </c>
@@ -11116,7 +11354,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1870</v>
       </c>
@@ -11127,7 +11365,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1871</v>
       </c>
@@ -11138,7 +11376,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1872</v>
       </c>
@@ -11149,7 +11387,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1873</v>
       </c>
@@ -11160,7 +11398,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1874</v>
       </c>
@@ -11171,7 +11409,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1875</v>
       </c>
@@ -11182,7 +11420,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1876</v>
       </c>
@@ -11193,7 +11431,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1877</v>
       </c>
@@ -11204,7 +11442,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1878</v>
       </c>
@@ -11215,7 +11453,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1879</v>
       </c>
@@ -11226,7 +11464,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1880</v>
       </c>
@@ -11237,7 +11475,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1881</v>
       </c>
@@ -11248,7 +11486,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1882</v>
       </c>
@@ -11259,7 +11497,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1883</v>
       </c>
@@ -11270,7 +11508,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1884</v>
       </c>
@@ -11281,7 +11519,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1885</v>
       </c>
@@ -11292,7 +11530,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1886</v>
       </c>
@@ -11303,7 +11541,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1887</v>
       </c>
@@ -11314,7 +11552,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>1888</v>
       </c>
@@ -11325,7 +11563,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1889</v>
       </c>
@@ -11336,7 +11574,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1890</v>
       </c>
@@ -11347,7 +11585,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1891</v>
       </c>
@@ -11358,7 +11596,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1892</v>
       </c>
@@ -11369,7 +11607,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1893</v>
       </c>
@@ -11380,7 +11618,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1894</v>
       </c>
@@ -11391,7 +11629,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1895</v>
       </c>
@@ -11402,7 +11640,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1896</v>
       </c>
@@ -11413,7 +11651,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1897</v>
       </c>
@@ -11424,7 +11662,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1898</v>
       </c>
@@ -11435,7 +11673,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1899</v>
       </c>
@@ -11446,7 +11684,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1900</v>
       </c>
@@ -11457,7 +11695,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1901</v>
       </c>
@@ -11468,7 +11706,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>1902</v>
       </c>
@@ -11479,7 +11717,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1903</v>
       </c>
@@ -11490,7 +11728,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1904</v>
       </c>
@@ -11501,7 +11739,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1905</v>
       </c>
@@ -11512,7 +11750,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1906</v>
       </c>
@@ -11523,7 +11761,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1907</v>
       </c>
@@ -11534,7 +11772,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1908</v>
       </c>
@@ -11545,7 +11783,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1909</v>
       </c>
@@ -11556,7 +11794,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1910</v>
       </c>
@@ -11567,7 +11805,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1911</v>
       </c>
@@ -11578,7 +11816,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1912</v>
       </c>
@@ -11589,7 +11827,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>1913</v>
       </c>
@@ -11600,7 +11838,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1914</v>
       </c>
@@ -11611,7 +11849,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>1915</v>
       </c>
@@ -11622,7 +11860,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1916</v>
       </c>
@@ -11633,7 +11871,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1917</v>
       </c>
@@ -11644,7 +11882,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>1918</v>
       </c>
@@ -11655,7 +11893,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1919</v>
       </c>
@@ -11666,7 +11904,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1920</v>
       </c>
@@ -11677,7 +11915,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>1921</v>
       </c>
@@ -11688,7 +11926,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>1922</v>
       </c>
@@ -11699,7 +11937,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>1923</v>
       </c>
@@ -11710,7 +11948,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1924</v>
       </c>
@@ -11721,7 +11959,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1925</v>
       </c>
@@ -11732,7 +11970,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1926</v>
       </c>
@@ -11743,7 +11981,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1927</v>
       </c>
@@ -11754,7 +11992,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>1928</v>
       </c>
@@ -11765,7 +12003,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>1929</v>
       </c>
@@ -11776,7 +12014,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>1930</v>
       </c>
@@ -11787,7 +12025,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1931</v>
       </c>
@@ -11798,7 +12036,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>1932</v>
       </c>
@@ -11809,7 +12047,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1933</v>
       </c>
@@ -11820,7 +12058,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1934</v>
       </c>
@@ -11831,7 +12069,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>1935</v>
       </c>
@@ -11842,7 +12080,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1936</v>
       </c>
@@ -11853,7 +12091,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1937</v>
       </c>
@@ -11864,7 +12102,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1938</v>
       </c>
@@ -11875,7 +12113,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>1939</v>
       </c>
@@ -11886,7 +12124,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>1940</v>
       </c>
@@ -11897,7 +12135,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1941</v>
       </c>
@@ -11908,7 +12146,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1942</v>
       </c>
@@ -11919,7 +12157,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>1943</v>
       </c>
@@ -11930,7 +12168,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>1944</v>
       </c>
@@ -11941,7 +12179,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1945</v>
       </c>
@@ -11952,7 +12190,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1946</v>
       </c>
@@ -11963,7 +12201,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1947</v>
       </c>
@@ -11974,7 +12212,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>1948</v>
       </c>
@@ -11985,7 +12223,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>1949</v>
       </c>
@@ -11996,7 +12234,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>1950</v>
       </c>
@@ -12007,7 +12245,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1951</v>
       </c>
@@ -12018,7 +12256,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1952</v>
       </c>
@@ -12029,7 +12267,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1953</v>
       </c>
@@ -12040,7 +12278,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>1954</v>
       </c>
@@ -12051,7 +12289,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1955</v>
       </c>
@@ -12062,7 +12300,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1956</v>
       </c>
@@ -12073,7 +12311,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1957</v>
       </c>
@@ -12084,7 +12322,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1958</v>
       </c>
@@ -12095,7 +12333,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1959</v>
       </c>
@@ -12106,7 +12344,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1960</v>
       </c>
@@ -12117,15 +12355,18 @@
         <v>870</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1961</v>
       </c>
       <c r="B451" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C451" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1962</v>
       </c>
@@ -12136,7 +12377,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1963</v>
       </c>
@@ -12147,7 +12388,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1964</v>
       </c>
@@ -12158,7 +12399,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1965</v>
       </c>
@@ -12169,7 +12410,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>1966</v>
       </c>
@@ -12180,7 +12421,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>1967</v>
       </c>
@@ -12191,7 +12432,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>1968</v>
       </c>
@@ -12202,7 +12443,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1969</v>
       </c>
@@ -12213,7 +12454,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1970</v>
       </c>
@@ -12224,7 +12465,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1971</v>
       </c>
@@ -12235,7 +12476,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>1972</v>
       </c>
@@ -12246,7 +12487,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>1973</v>
       </c>
@@ -12257,7 +12498,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1974</v>
       </c>
@@ -12268,7 +12509,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1975</v>
       </c>
@@ -12279,7 +12520,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1976</v>
       </c>
@@ -12290,7 +12531,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1977</v>
       </c>
@@ -12301,7 +12542,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1978</v>
       </c>
@@ -12312,7 +12553,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1979</v>
       </c>
@@ -12323,7 +12564,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>1980</v>
       </c>
@@ -12334,7 +12575,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>1981</v>
       </c>
@@ -12345,7 +12586,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1982</v>
       </c>
@@ -12356,7 +12597,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1983</v>
       </c>
@@ -12367,7 +12608,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1984</v>
       </c>
@@ -12378,7 +12619,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1985</v>
       </c>
@@ -12389,7 +12630,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1986</v>
       </c>
@@ -12400,7 +12641,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1987</v>
       </c>
@@ -12411,7 +12652,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>1988</v>
       </c>
@@ -12422,7 +12663,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>1989</v>
       </c>
@@ -12433,7 +12674,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1990</v>
       </c>
@@ -12444,7 +12685,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1991</v>
       </c>
@@ -12455,7 +12696,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1992</v>
       </c>
@@ -12466,7 +12707,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>1993</v>
       </c>
@@ -12477,7 +12718,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1994</v>
       </c>
@@ -12488,7 +12729,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>1995</v>
       </c>
@@ -12499,7 +12740,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>1996</v>
       </c>
@@ -12510,15 +12751,18 @@
         <v>941</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>1997</v>
       </c>
       <c r="B487" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C487" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>1998</v>
       </c>
@@ -12529,7 +12773,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1999</v>
       </c>
@@ -12540,7 +12784,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>2000</v>
       </c>
@@ -12551,7 +12795,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>2001</v>
       </c>
@@ -12562,7 +12806,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>2002</v>
       </c>
@@ -12573,7 +12817,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>2003</v>
       </c>
@@ -12584,7 +12828,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>2004</v>
       </c>
@@ -12595,7 +12839,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>2005</v>
       </c>
@@ -12606,7 +12850,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>2006</v>
       </c>
@@ -12617,7 +12861,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>2007</v>
       </c>
@@ -12628,7 +12872,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>2008</v>
       </c>
@@ -12639,7 +12883,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>2009</v>
       </c>
@@ -12650,7 +12894,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>2010</v>
       </c>
@@ -12661,23 +12905,29 @@
         <v>968</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>2011</v>
       </c>
       <c r="B501" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C501" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>2012</v>
       </c>
       <c r="B502" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C502" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>2013</v>
       </c>
@@ -12688,15 +12938,18 @@
         <v>972</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>2014</v>
       </c>
       <c r="B504" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C504" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>2015</v>
       </c>
@@ -12707,7 +12960,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>2016</v>
       </c>
@@ -12718,31 +12971,40 @@
         <v>977</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>2017</v>
       </c>
       <c r="B507" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C507" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>2018</v>
       </c>
       <c r="B508" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C508" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>2019</v>
       </c>
       <c r="B509" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C509" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>2020</v>
       </c>
@@ -12753,7 +13015,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>2021</v>
       </c>
@@ -12764,7 +13026,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>2022</v>
       </c>
@@ -12775,7 +13037,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>2023</v>
       </c>
@@ -12786,7 +13048,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>2024</v>
       </c>
@@ -12797,7 +13059,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>2025</v>
       </c>
@@ -12808,7 +13070,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>2026</v>
       </c>
@@ -12819,7 +13081,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>2027</v>
       </c>
@@ -12830,7 +13092,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>2028</v>
       </c>
@@ -12841,7 +13103,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>2029</v>
       </c>
@@ -12852,7 +13114,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>2030</v>
       </c>
@@ -12863,7 +13125,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>2031</v>
       </c>
@@ -12874,7 +13136,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>2032</v>
       </c>
@@ -12885,7 +13147,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>2033</v>
       </c>
@@ -12896,7 +13158,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>2034</v>
       </c>
@@ -12907,7 +13169,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>2035</v>
       </c>
@@ -12918,7 +13180,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>2036</v>
       </c>
@@ -12929,7 +13191,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>2037</v>
       </c>
@@ -12940,7 +13202,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>2038</v>
       </c>
@@ -12951,7 +13213,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>2039</v>
       </c>
@@ -12962,7 +13224,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>2040</v>
       </c>
@@ -12973,7 +13235,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>2041</v>
       </c>
@@ -12984,7 +13246,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>2042</v>
       </c>
@@ -12995,15 +13257,18 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>2043</v>
       </c>
       <c r="B533" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C533" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>2044</v>
       </c>
@@ -13014,7 +13279,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>2045</v>
       </c>
@@ -13025,7 +13290,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>2046</v>
       </c>
@@ -13036,7 +13301,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>2047</v>
       </c>
@@ -13047,7 +13312,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>2048</v>
       </c>
@@ -13058,7 +13323,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>2049</v>
       </c>
@@ -13069,7 +13334,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>2050</v>
       </c>
@@ -13080,7 +13345,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>2051</v>
       </c>
@@ -13091,7 +13356,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>2052</v>
       </c>
@@ -13102,7 +13367,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>2053</v>
       </c>
@@ -13113,7 +13378,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>2054</v>
       </c>
@@ -13124,7 +13389,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>2055</v>
       </c>
@@ -13135,7 +13400,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>2056</v>
       </c>
@@ -13146,7 +13411,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>2057</v>
       </c>
@@ -13157,7 +13422,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>2058</v>
       </c>
@@ -13168,7 +13433,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>2059</v>
       </c>
@@ -13179,7 +13444,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>2060</v>
       </c>
@@ -13190,15 +13455,18 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>2061</v>
       </c>
       <c r="B551" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C551" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>2062</v>
       </c>
@@ -13209,7 +13477,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>2063</v>
       </c>
@@ -13220,7 +13488,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>2064</v>
       </c>
@@ -13231,7 +13499,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>2065</v>
       </c>
@@ -13242,7 +13510,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>2066</v>
       </c>
@@ -13253,7 +13521,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>2067</v>
       </c>
@@ -13264,7 +13532,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>2068</v>
       </c>
@@ -13275,7 +13543,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>2069</v>
       </c>
@@ -13286,7 +13554,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>2070</v>
       </c>
@@ -13297,7 +13565,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>2071</v>
       </c>
@@ -13308,7 +13576,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>2072</v>
       </c>
@@ -13319,7 +13587,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>2073</v>
       </c>
@@ -13330,7 +13598,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>2074</v>
       </c>
@@ -13341,7 +13609,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>2075</v>
       </c>
@@ -13352,7 +13620,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>2076</v>
       </c>
@@ -13363,7 +13631,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>2077</v>
       </c>
@@ -13374,7 +13642,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>2078</v>
       </c>
@@ -13385,7 +13653,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>2079</v>
       </c>
@@ -13396,7 +13664,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>2080</v>
       </c>
@@ -13407,7 +13675,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>2081</v>
       </c>
@@ -13418,7 +13686,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>2082</v>
       </c>
@@ -13429,7 +13697,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>2083</v>
       </c>
@@ -13440,7 +13708,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>2084</v>
       </c>
@@ -13451,7 +13719,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>2085</v>
       </c>
@@ -13462,7 +13730,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>2086</v>
       </c>
@@ -13473,7 +13741,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>2087</v>
       </c>
@@ -13484,7 +13752,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>2088</v>
       </c>
@@ -13495,7 +13763,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>2089</v>
       </c>
@@ -13506,7 +13774,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>2090</v>
       </c>
@@ -13517,7 +13785,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>2091</v>
       </c>
@@ -13528,7 +13796,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>2092</v>
       </c>
@@ -13539,7 +13807,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>2093</v>
       </c>
@@ -13550,7 +13818,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>2094</v>
       </c>
@@ -13561,7 +13829,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>2095</v>
       </c>
@@ -13572,7 +13840,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>2096</v>
       </c>
@@ -13583,7 +13851,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>2097</v>
       </c>
@@ -13594,7 +13862,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>2098</v>
       </c>
@@ -13605,7 +13873,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>2099</v>
       </c>
@@ -13616,7 +13884,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>2100</v>
       </c>
@@ -13627,7 +13895,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>2101</v>
       </c>
@@ -13638,7 +13906,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>2102</v>
       </c>
@@ -13649,7 +13917,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>2103</v>
       </c>
@@ -13660,7 +13928,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>2104</v>
       </c>
@@ -13671,7 +13939,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>2105</v>
       </c>
@@ -13682,7 +13950,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>2106</v>
       </c>
@@ -13693,7 +13961,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>2107</v>
       </c>
@@ -13704,7 +13972,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>2108</v>
       </c>
@@ -13715,7 +13983,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>2109</v>
       </c>
@@ -13726,7 +13994,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>2110</v>
       </c>
@@ -13737,7 +14005,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>2111</v>
       </c>
@@ -13748,7 +14016,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>2112</v>
       </c>
@@ -13759,7 +14027,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>2113</v>
       </c>
@@ -13770,15 +14038,18 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>2114</v>
       </c>
       <c r="B604" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C604" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>2115</v>
       </c>
@@ -13789,7 +14060,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>2116</v>
       </c>
@@ -13800,7 +14071,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>2117</v>
       </c>
@@ -13811,7 +14082,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>2118</v>
       </c>
@@ -13822,7 +14093,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>2119</v>
       </c>
@@ -13833,7 +14104,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>2120</v>
       </c>
@@ -13844,7 +14115,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>2121</v>
       </c>
@@ -13855,7 +14126,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>2122</v>
       </c>
@@ -13866,7 +14137,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>2123</v>
       </c>
@@ -13877,7 +14148,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>2124</v>
       </c>
@@ -13888,7 +14159,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>2125</v>
       </c>
@@ -13899,7 +14170,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>2126</v>
       </c>
@@ -13910,7 +14181,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>2127</v>
       </c>
@@ -13921,7 +14192,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>2128</v>
       </c>
@@ -13932,7 +14203,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>2129</v>
       </c>
@@ -13943,7 +14214,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>2130</v>
       </c>
@@ -13954,7 +14225,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>2131</v>
       </c>
@@ -13965,7 +14236,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>2132</v>
       </c>
@@ -13976,7 +14247,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>2133</v>
       </c>
@@ -13987,7 +14258,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>2134</v>
       </c>
@@ -13998,7 +14269,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>2135</v>
       </c>
@@ -14009,7 +14280,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>2136</v>
       </c>
@@ -14020,7 +14291,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>2137</v>
       </c>
@@ -14031,7 +14302,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>2138</v>
       </c>
@@ -14042,7 +14313,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>2139</v>
       </c>
@@ -14053,7 +14324,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>2140</v>
       </c>
@@ -14064,7 +14335,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>2141</v>
       </c>
@@ -14075,7 +14346,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>2142</v>
       </c>
@@ -14086,7 +14357,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>2143</v>
       </c>
@@ -14097,7 +14368,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>2144</v>
       </c>
@@ -14108,7 +14379,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>2145</v>
       </c>
@@ -14119,7 +14390,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>2146</v>
       </c>
@@ -14130,7 +14401,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>2147</v>
       </c>
@@ -14141,7 +14412,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>2148</v>
       </c>
@@ -14152,7 +14423,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>2149</v>
       </c>
@@ -14163,7 +14434,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>2150</v>
       </c>
@@ -14174,7 +14445,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>2151</v>
       </c>
@@ -14185,7 +14456,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>2152</v>
       </c>
@@ -14196,7 +14467,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>2153</v>
       </c>
@@ -14207,7 +14478,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>2154</v>
       </c>
@@ -14218,7 +14489,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>2155</v>
       </c>
@@ -14229,7 +14500,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>2156</v>
       </c>
@@ -14240,7 +14511,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>2157</v>
       </c>
@@ -14251,7 +14522,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>2158</v>
       </c>
@@ -14262,39 +14533,51 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>2159</v>
       </c>
       <c r="B649" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C649" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>2160</v>
       </c>
       <c r="B650" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C650" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>2161</v>
       </c>
       <c r="B651" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C651" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>2162</v>
       </c>
       <c r="B652" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C652" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>2163</v>
       </c>
@@ -14305,7 +14588,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>2164</v>
       </c>
@@ -14316,7 +14599,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>2165</v>
       </c>
@@ -14327,7 +14610,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>2166</v>
       </c>
@@ -14338,7 +14621,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>2167</v>
       </c>
@@ -14349,7 +14632,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>2168</v>
       </c>
@@ -14360,7 +14643,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>2169</v>
       </c>
@@ -14371,7 +14654,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>2170</v>
       </c>
@@ -14382,7 +14665,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>2171</v>
       </c>
@@ -14393,7 +14676,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>2172</v>
       </c>
@@ -14404,7 +14687,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>2173</v>
       </c>
@@ -14415,7 +14698,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>2174</v>
       </c>
@@ -14426,7 +14709,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>2175</v>
       </c>
@@ -14437,15 +14720,18 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>2176</v>
       </c>
       <c r="B666" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C666" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>2177</v>
       </c>
@@ -14456,7 +14742,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>2178</v>
       </c>
@@ -14467,23 +14753,29 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>2179</v>
       </c>
       <c r="B669" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C669" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>2180</v>
       </c>
       <c r="B670" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C670" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>2181</v>
       </c>
@@ -14494,7 +14786,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>2182</v>
       </c>
@@ -14505,7 +14797,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>2183</v>
       </c>
@@ -14516,7 +14808,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>2184</v>
       </c>
@@ -14527,7 +14819,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>2185</v>
       </c>
@@ -14538,7 +14830,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>2186</v>
       </c>
@@ -14549,7 +14841,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>2187</v>
       </c>
@@ -14560,7 +14852,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>2188</v>
       </c>
@@ -14571,7 +14863,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>2189</v>
       </c>
@@ -14582,7 +14874,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>2190</v>
       </c>
@@ -14593,7 +14885,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>2191</v>
       </c>
@@ -14604,7 +14896,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>2192</v>
       </c>
@@ -14615,7 +14907,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>2193</v>
       </c>
@@ -14626,7 +14918,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>2194</v>
       </c>
@@ -14637,23 +14929,29 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>2195</v>
       </c>
       <c r="B685" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C685" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>2196</v>
       </c>
       <c r="B686" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C686" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>2197</v>
       </c>
@@ -14664,15 +14962,18 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>2198</v>
       </c>
       <c r="B688" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C688" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>2199</v>
       </c>
@@ -14683,15 +14984,18 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>2200</v>
       </c>
       <c r="B690" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C690" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>2201</v>
       </c>
@@ -14702,7 +15006,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>2202</v>
       </c>
@@ -14713,7 +15017,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>2203</v>
       </c>
@@ -14724,7 +15028,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>2204</v>
       </c>
@@ -14735,7 +15039,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>2205</v>
       </c>
@@ -14746,7 +15050,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>2206</v>
       </c>
@@ -14757,7 +15061,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>2207</v>
       </c>
@@ -14768,7 +15072,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>2208</v>
       </c>
@@ -14779,7 +15083,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>2209</v>
       </c>
@@ -14790,7 +15094,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>2210</v>
       </c>
@@ -14801,7 +15105,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>2211</v>
       </c>
@@ -14812,7 +15116,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>2212</v>
       </c>
@@ -14823,7 +15127,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>2213</v>
       </c>
@@ -14834,7 +15138,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>2214</v>
       </c>
@@ -14845,7 +15149,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>2215</v>
       </c>
@@ -14856,7 +15160,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>2216</v>
       </c>
@@ -14867,7 +15171,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>2217</v>
       </c>
@@ -14878,7 +15182,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>2218</v>
       </c>
@@ -14889,7 +15193,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>2219</v>
       </c>
@@ -14900,7 +15204,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>2220</v>
       </c>
@@ -14911,7 +15215,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>2221</v>
       </c>
@@ -14922,7 +15226,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>2222</v>
       </c>
@@ -14933,7 +15237,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>2223</v>
       </c>
@@ -14944,7 +15248,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>2224</v>
       </c>
@@ -14955,7 +15259,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>2225</v>
       </c>
@@ -14966,7 +15270,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>2226</v>
       </c>
@@ -14977,15 +15281,18 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>2227</v>
       </c>
       <c r="B717" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C717" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>2228</v>
       </c>
@@ -14996,7 +15303,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>2229</v>
       </c>
@@ -15007,7 +15314,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>2230</v>
       </c>
@@ -15018,7 +15325,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>2231</v>
       </c>
@@ -15029,7 +15336,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>2232</v>
       </c>
@@ -15040,7 +15347,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>2233</v>
       </c>
@@ -15051,7 +15358,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>2234</v>
       </c>
@@ -15062,7 +15369,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>2235</v>
       </c>
@@ -15073,7 +15380,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>2236</v>
       </c>
@@ -15084,7 +15391,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>2237</v>
       </c>
@@ -15095,7 +15402,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>2238</v>
       </c>
@@ -15106,7 +15413,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>2239</v>
       </c>
@@ -15117,7 +15424,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>2240</v>
       </c>
@@ -15128,7 +15435,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>2241</v>
       </c>
@@ -15139,7 +15446,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>2242</v>
       </c>
@@ -15150,7 +15457,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>2243</v>
       </c>
@@ -15161,15 +15468,18 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>2244</v>
       </c>
       <c r="B734" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C734" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>2245</v>
       </c>
@@ -15180,7 +15490,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>2246</v>
       </c>
@@ -15191,7 +15501,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>2247</v>
       </c>
@@ -15202,7 +15512,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>2248</v>
       </c>
@@ -15213,7 +15523,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>2249</v>
       </c>
@@ -15224,7 +15534,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>2250</v>
       </c>
@@ -15235,7 +15545,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>2251</v>
       </c>
@@ -15246,7 +15556,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>2252</v>
       </c>
@@ -15257,7 +15567,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>2253</v>
       </c>
@@ -15268,7 +15578,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>2254</v>
       </c>
@@ -15279,7 +15589,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>2255</v>
       </c>
@@ -15290,7 +15600,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>2256</v>
       </c>
@@ -15301,7 +15611,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>2257</v>
       </c>
@@ -15312,7 +15622,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>2258</v>
       </c>
@@ -15323,7 +15633,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>2259</v>
       </c>
@@ -15334,7 +15644,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>2260</v>
       </c>
@@ -15345,7 +15655,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>2261</v>
       </c>
@@ -15356,7 +15666,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>2262</v>
       </c>
@@ -15367,7 +15677,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>2263</v>
       </c>
@@ -15378,7 +15688,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>2264</v>
       </c>
@@ -15389,7 +15699,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>2265</v>
       </c>
@@ -15400,7 +15710,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>2266</v>
       </c>
@@ -15411,7 +15721,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>2267</v>
       </c>
@@ -15422,7 +15732,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>2268</v>
       </c>
@@ -15433,7 +15743,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>2269</v>
       </c>
@@ -15444,7 +15754,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>2270</v>
       </c>
@@ -15455,7 +15765,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>2271</v>
       </c>
@@ -15466,7 +15776,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>2272</v>
       </c>
@@ -15477,7 +15787,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>2273</v>
       </c>
@@ -15488,7 +15798,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>2274</v>
       </c>
@@ -15499,7 +15809,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>2275</v>
       </c>
@@ -15510,7 +15820,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>2276</v>
       </c>
@@ -15521,7 +15831,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>2277</v>
       </c>
@@ -15532,7 +15842,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>2278</v>
       </c>
@@ -15543,7 +15853,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>2279</v>
       </c>
@@ -15554,7 +15864,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>2280</v>
       </c>
@@ -15565,7 +15875,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>2281</v>
       </c>
@@ -15576,7 +15886,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>2282</v>
       </c>
@@ -15587,7 +15897,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>2283</v>
       </c>
@@ -15598,7 +15908,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>2284</v>
       </c>
@@ -15609,7 +15919,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>2285</v>
       </c>
@@ -15620,7 +15930,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>2286</v>
       </c>
@@ -15631,7 +15941,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>2287</v>
       </c>
@@ -15642,7 +15952,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>2288</v>
       </c>
@@ -15653,7 +15963,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>2289</v>
       </c>
@@ -15664,7 +15974,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>2290</v>
       </c>
@@ -15675,7 +15985,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>2291</v>
       </c>
@@ -15687,6 +15997,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C781" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
